--- a/results/mp/tinybert/corona/confidence/168/topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>warning</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>fears</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -100,133 +85,154 @@
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>our</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8046875</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7077922077922078</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7962962962962963</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5333333333333333</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1353,363 +1359,219 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3571428571428572</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>340</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>10</v>
       </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L18">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.65625</v>
+      </c>
+      <c r="L20">
+        <v>105</v>
+      </c>
+      <c r="M20">
+        <v>105</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="L21">
+        <v>68</v>
+      </c>
+      <c r="M21">
+        <v>68</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.64</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>18</v>
       </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K17">
-        <v>0.75</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>9</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
+      <c r="K23">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>19</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L18">
-        <v>29</v>
-      </c>
-      <c r="M18">
-        <v>29</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.296137339055794</v>
-      </c>
-      <c r="C19">
-        <v>69</v>
-      </c>
-      <c r="D19">
-        <v>69</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>164</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L19">
-        <v>42</v>
-      </c>
-      <c r="M19">
-        <v>42</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C20">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>63</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20">
-        <v>0.72</v>
-      </c>
-      <c r="L20">
-        <v>18</v>
-      </c>
-      <c r="M20">
-        <v>18</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.175</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>66</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L21">
-        <v>12</v>
-      </c>
-      <c r="M21">
-        <v>12</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1259259259259259</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>118</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L22">
-        <v>16</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.06363636363636363</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>103</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L23">
-        <v>20</v>
-      </c>
-      <c r="M23">
-        <v>20</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.589041095890411</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.5862068965517241</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1747,15 +1609,15 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5600000000000001</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L26">
         <v>14</v>
@@ -1773,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5446009389671361</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L27">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1799,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5277777777777778</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1825,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5263157894736842</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1851,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1877,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.4705882352941176</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1903,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.4545454545454545</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1929,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4418604651162791</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1955,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.4021739130434783</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1981,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2007,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.3714285714285714</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2033,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.3571428571428572</v>
+        <v>0.325</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2059,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.2894736842105263</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2085,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.25</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2111,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.2162162162162162</v>
+        <v>0.21875</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2137,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.02192982456140351</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2163,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>446</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.0187793427230047</v>
+        <v>0.04066985645933014</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2189,33 +2051,241 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43">
+        <v>0.02013422818791946</v>
+      </c>
+      <c r="L43">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>18</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44">
+        <v>0.015</v>
+      </c>
+      <c r="L44">
+        <v>18</v>
+      </c>
+      <c r="M44">
+        <v>18</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45">
+        <v>0.008614232209737827</v>
+      </c>
+      <c r="L45">
+        <v>23</v>
+      </c>
+      <c r="M45">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <v>0.88</v>
+      </c>
+      <c r="O45">
+        <v>0.12</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46">
+        <v>0.006952965235173824</v>
+      </c>
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>17</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47">
+        <v>0.00546448087431694</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>13</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K48">
+        <v>0.005406487785342411</v>
+      </c>
+      <c r="L48">
+        <v>27</v>
+      </c>
+      <c r="M48">
+        <v>29</v>
+      </c>
+      <c r="N48">
+        <v>0.93</v>
+      </c>
+      <c r="O48">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K43">
-        <v>0.004009163802978236</v>
-      </c>
-      <c r="L43">
-        <v>7</v>
-      </c>
-      <c r="M43">
-        <v>7</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>1739</v>
+      <c r="K49">
+        <v>0.005314232902033271</v>
+      </c>
+      <c r="L49">
+        <v>23</v>
+      </c>
+      <c r="M49">
+        <v>23</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50">
+        <v>0.004186795491143317</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>0.87</v>
+      </c>
+      <c r="O50">
+        <v>0.13</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51">
+        <v>0.003292659306604687</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <v>19</v>
+      </c>
+      <c r="N51">
+        <v>0.89</v>
+      </c>
+      <c r="O51">
+        <v>0.11</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>5146</v>
       </c>
     </row>
   </sheetData>
